--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3020.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3020.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172053100838955</v>
+        <v>1.330464124679565</v>
       </c>
       <c r="B1">
-        <v>2.171398861246304</v>
+        <v>1.701269865036011</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.357109069824219</v>
       </c>
       <c r="D1">
-        <v>2.082342409319927</v>
+        <v>3.72789478302002</v>
       </c>
       <c r="E1">
-        <v>1.198849276008508</v>
+        <v>1.264052510261536</v>
       </c>
     </row>
   </sheetData>
